--- a/BDD/registros/empresa.xlsx
+++ b/BDD/registros/empresa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9732"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>codEmpresa</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>socialMediaEmpresa</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>lastUpdate</t>
   </si>
   <si>
     <t>ModaViva</t>
@@ -132,6 +138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Confecci</t>
     </r>
     <r>
@@ -231,7 +243,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +256,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -728,150 +748,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,22 +1433,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="18.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="56.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="25.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
+    <col min="6" max="7" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,150 +1465,306 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="15" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G2" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="6">
+        <f ca="1" t="shared" ref="F3:F16" si="0">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G3" s="6">
+        <f ca="1" t="shared" ref="G3:G16" si="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G4" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G5" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G6" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G7" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="8" ht="15" spans="1:7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G8" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:7">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G9" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="10" ht="15" spans="1:7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G10" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G11" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="5" ht="15" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G12" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G13" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="6" ht="15" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="14" ht="15" spans="1:7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G14" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G15" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="16" ht="15" spans="1:7">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="G16" s="6">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
       </c>
     </row>
   </sheetData>
